--- a/out.xlsx
+++ b/out.xlsx
@@ -79,55 +79,10 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Иванов Пётр Семёнович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прокофьев Павел Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аллаберганов Мадиёр Фарходович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000003</t>
-  </si>
-  <si>
     <t xml:space="preserve">Заказ №1</t>
   </si>
   <si>
     <t xml:space="preserve">от 25.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хлеб</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 ед.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Заказ №2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">от 26.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кефир</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 ед.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">от 27.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Колбаса</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 ед.</t>
   </si>
 </sst>
 </file>
@@ -707,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s" s="7">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -715,7 +670,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="8">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -723,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s" s="7">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -731,7 +686,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="8">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -739,7 +694,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s" s="7">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -747,15 +702,15 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="8">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s" s="13">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -776,50 +731,50 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="13">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="12">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="13">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="12">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s" s="3">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="13">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="12">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s" s="3">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/out.xlsx
+++ b/out.xlsx
@@ -79,10 +79,55 @@
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">Иванов Пётр Семёнович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прокофьев Павел Сергеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аллаберганов Мадиёр Фарходович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00000003</t>
+  </si>
+  <si>
     <t xml:space="preserve">Заказ №1</t>
   </si>
   <si>
     <t xml:space="preserve">от 25.04.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хлеб</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 ед.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заказ №2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">от 26.04.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кефир</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 ед.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">от 27.04.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Колбаса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 ед.</t>
   </si>
 </sst>
 </file>
@@ -662,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -670,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="8">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -678,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -686,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="8">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -694,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s" s="7">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -702,15 +747,15 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="8">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s" s="13">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -731,50 +776,50 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="13">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="12">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="3">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="13">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="12">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="3">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="13">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="12">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s" s="3">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
